--- a/Tests/Validation/Wheat/FAR/Observed/FAR TAS W21-06-1.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR TAS W21-06-1.xlsx
@@ -52,10 +52,10 @@
     <x:t>Wheat.Phenology.Zadok.Stage.err</x:t>
   </x:si>
   <x:si>
-    <x:t>NDVIModel.Script.NDVI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NDVIModel.Script.NDVI.err</x:t>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
   </x:si>
   <x:si>
     <x:t>Wheat.AboveGround.Wt</x:t>
